--- a/src/files/44950.xlsx
+++ b/src/files/44950.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi Pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFEDD1F-D7AA-48B6-8015-60B9B4E3872B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1AB939-DE8A-47D6-851E-F34E9E691849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>6940</v>
+        <v>6982</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>

--- a/src/files/44950.xlsx
+++ b/src/files/44950.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi Pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1AB939-DE8A-47D6-851E-F34E9E691849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3765EA3B-6F3D-4484-8666-DE2B601226ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>842</v>
+        <v>9233</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>9233</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -1015,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>6982</v>
+        <v>694672</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
